--- a/crudo/REFRIGERACI-oct.xlsx
+++ b/crudo/REFRIGERACI-oct.xlsx
@@ -26,6 +26,63 @@
     <t>Nombre del anuncio</t>
   </si>
   <si>
+    <t>Nombre del conjunto de anuncios</t>
+  </si>
+  <si>
+    <t>Objetivo</t>
+  </si>
+  <si>
+    <t>Presupuesto del conjunto de anuncios</t>
+  </si>
+  <si>
+    <t>Tipo de presupuesto del conjunto de anuncios</t>
+  </si>
+  <si>
+    <t>Importe gastado (ARS)</t>
+  </si>
+  <si>
+    <t>Impresiones</t>
+  </si>
+  <si>
+    <t>Alcance</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>Clasificación de calidad</t>
+  </si>
+  <si>
+    <t>Clasificación del porcentaje de interacción</t>
+  </si>
+  <si>
+    <t>Conversaciones con mensajes iniciadas</t>
+  </si>
+  <si>
+    <t>Contactos de mensajes</t>
+  </si>
+  <si>
+    <t>Costo por contacto de mensajes (ARS)</t>
+  </si>
+  <si>
+    <t>Costo por conversación con mensajes iniciada (ARS)</t>
+  </si>
+  <si>
+    <t>Visitas al perfil de Instagram</t>
+  </si>
+  <si>
+    <t>Clics en el enlace</t>
+  </si>
+  <si>
+    <t>Clics salientes</t>
+  </si>
+  <si>
+    <t>CTR (porcentaje de clics en el enlace)</t>
+  </si>
+  <si>
+    <t>CPC (costo por clic en el enlace) (ARS)</t>
+  </si>
+  <si>
     <t>Entrega del anuncio</t>
   </si>
   <si>
@@ -35,106 +92,49 @@
     <t>Indicador de resultado</t>
   </si>
   <si>
-    <t>Costo por resultados</t>
-  </si>
-  <si>
-    <t>Presupuesto del conjunto de anuncios</t>
-  </si>
-  <si>
-    <t>Tipo de presupuesto del conjunto de anuncios</t>
-  </si>
-  <si>
-    <t>Importe gastado (ARS)</t>
-  </si>
-  <si>
-    <t>Impresiones</t>
-  </si>
-  <si>
-    <t>Alcance</t>
-  </si>
-  <si>
-    <t>Finalización</t>
-  </si>
-  <si>
-    <t>Configuración de atribución</t>
-  </si>
-  <si>
-    <t>Puja</t>
-  </si>
-  <si>
-    <t>Tipo de puja</t>
-  </si>
-  <si>
-    <t>Último cambio significativo</t>
-  </si>
-  <si>
-    <t>Clasificación de calidad</t>
-  </si>
-  <si>
-    <t>Clasificación del porcentaje de interacción</t>
-  </si>
-  <si>
-    <t>Clasificación del porcentaje de conversiones</t>
-  </si>
-  <si>
-    <t>Nombre del conjunto de anuncios</t>
-  </si>
-  <si>
     <t>2025-10-01</t>
   </si>
   <si>
     <t>2025-10-31</t>
   </si>
   <si>
-    <t>🧰 Así fabricamos y montamos una cámara frigorífica</t>
+    <t>Ofrecemos la asistencia técnica que tu negocio necesita:</t>
+  </si>
+  <si>
+    <t>Trafico IG</t>
+  </si>
+  <si>
+    <t>Tráfico</t>
+  </si>
+  <si>
+    <t>Diario</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>inactive</t>
   </si>
   <si>
-    <t>Con el presupuesto de la campaña</t>
-  </si>
-  <si>
-    <t>En curso</t>
-  </si>
-  <si>
-    <t>7 días tras clic o 1 día tras visualización</t>
-  </si>
-  <si>
-    <t>ABSOLUTE_OCPM</t>
-  </si>
-  <si>
-    <t>2025-08-11T18:49:04-0300</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Ventas WhatsApp -&gt;</t>
-  </si>
-  <si>
-    <t>Soluciones térmicas reales para la industria</t>
-  </si>
-  <si>
-    <t>¡Instalamos un sistema de climatización de forma</t>
+    <t>🧊 Somos Refrigeración Perri</t>
   </si>
   <si>
     <t>active</t>
   </si>
   <si>
-    <t>actions:onsite_conversion.messaging_conversation_started_7d</t>
+    <t>profile_visit_view</t>
+  </si>
+  <si>
+    <t>¡Garantizamos un enfriamiento continuo y sin</t>
   </si>
   <si>
     <t>¡Obra de climatización en Parque Industrial de Pilar!</t>
   </si>
   <si>
-    <t>Ofrecemos la asistencia técnica que tu negocio necesita:</t>
-  </si>
-  <si>
-    <t>Lo caro no es el mantenimiento, es la falla.</t>
-  </si>
-  <si>
-    <t>🧊 Cuando otros tardan en conseguir un repuesto… nosotros ya lo tenemos.</t>
+    <t>🌡️ Climatización personalizada para tu negocio.</t>
+  </si>
+  <si>
+    <t>🛠️ ¡Asegurá la continuidad de tu producción!</t>
   </si>
 </sst>
 </file>
@@ -489,15 +489,15 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="U1" sqref="U1"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="20" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,415 +561,377 @@
       <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>1500</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>604.73</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>94</v>
-      </c>
-      <c r="L2">
-        <v>77</v>
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
       </c>
       <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="R2" t="s">
+      <c r="F3">
+        <v>1500</v>
+      </c>
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s">
+      <c r="H3">
+        <v>22.09</v>
+      </c>
+      <c r="I3">
+        <v>28</v>
+      </c>
+      <c r="J3">
+        <v>28</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>3.571429</v>
+      </c>
+      <c r="V3">
+        <v>22.09</v>
+      </c>
+      <c r="W3" t="s">
+        <v>34</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>1500</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="T2" t="s">
+      <c r="H4">
+        <v>27.41</v>
+      </c>
+      <c r="I4">
+        <v>29</v>
+      </c>
+      <c r="J4">
+        <v>29</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>3.448276</v>
+      </c>
+      <c r="V4">
+        <v>27.41</v>
+      </c>
+      <c r="W4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>1500</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="U2" t="s">
-        <v>31</v>
+      <c r="H5">
+        <v>781.79</v>
+      </c>
+      <c r="I5">
+        <v>1220</v>
+      </c>
+      <c r="J5">
+        <v>1110</v>
+      </c>
+      <c r="K5">
+        <v>1.099099</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>0.409836</v>
+      </c>
+      <c r="V5">
+        <v>156.358</v>
+      </c>
+      <c r="W5" t="s">
+        <v>32</v>
+      </c>
+      <c r="X5">
+        <v>5</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="N3" t="s">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
+        <v>1500</v>
+      </c>
+      <c r="G6" t="s">
         <v>30</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="H6">
+        <v>3210.98</v>
+      </c>
+      <c r="I6">
+        <v>3296</v>
+      </c>
+      <c r="J6">
+        <v>2527</v>
+      </c>
+      <c r="K6">
+        <v>1.304313</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6">
+        <v>54</v>
+      </c>
+      <c r="S6">
+        <v>55</v>
+      </c>
+      <c r="U6">
+        <v>1.668689</v>
+      </c>
+      <c r="V6">
+        <v>58.381455</v>
+      </c>
+      <c r="W6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6">
+        <v>54</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="R3" t="s">
+      <c r="F7">
+        <v>1500</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
       </c>
-      <c r="S3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="H7">
+        <v>10565.98</v>
+      </c>
+      <c r="I7">
+        <v>17459</v>
+      </c>
+      <c r="J7">
+        <v>15477</v>
+      </c>
+      <c r="K7">
+        <v>1.128061</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7">
+        <v>183</v>
+      </c>
+      <c r="S7">
+        <v>185</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1.059625</v>
+      </c>
+      <c r="V7">
+        <v>57.113405</v>
+      </c>
+      <c r="W7" t="s">
         <v>34</v>
       </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="X7">
+        <v>183</v>
+      </c>
+      <c r="Y7" t="s">
         <v>35</v>
-      </c>
-      <c r="G4">
-        <v>1593.145</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>3186.29</v>
-      </c>
-      <c r="K4">
-        <v>433</v>
-      </c>
-      <c r="L4">
-        <v>313</v>
-      </c>
-      <c r="M4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" t="s">
-        <v>30</v>
-      </c>
-      <c r="S4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" t="s">
-        <v>30</v>
-      </c>
-      <c r="U4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>91.54</v>
-      </c>
-      <c r="K5">
-        <v>13</v>
-      </c>
-      <c r="L5">
-        <v>12</v>
-      </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" t="s">
-        <v>30</v>
-      </c>
-      <c r="U5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6">
-        <v>2005.86571429</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>14041.06</v>
-      </c>
-      <c r="K6">
-        <v>2664</v>
-      </c>
-      <c r="L6">
-        <v>1787</v>
-      </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" t="s">
-        <v>30</v>
-      </c>
-      <c r="U6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0.81</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" t="s">
-        <v>30</v>
-      </c>
-      <c r="T7" t="s">
-        <v>30</v>
-      </c>
-      <c r="U7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>7.66</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" t="s">
-        <v>30</v>
-      </c>
-      <c r="S8" t="s">
-        <v>30</v>
-      </c>
-      <c r="T8" t="s">
-        <v>30</v>
-      </c>
-      <c r="U8" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
